--- a/metrics/MAPE/average & upto/Ictus.xlsx
+++ b/metrics/MAPE/average & upto/Ictus.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7167699954886.441</v>
+        <v>8569292464092.256</v>
       </c>
       <c r="C3" t="n">
-        <v>8169410434151.953</v>
+        <v>8966540329237.23</v>
       </c>
       <c r="D3" t="n">
-        <v>8559718791902.08</v>
+        <v>8464908389958.093</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8785903546703.094</v>
+        <v>8382092293711.499</v>
       </c>
       <c r="C4" t="n">
-        <v>8890686127315.014</v>
+        <v>8841513869435.049</v>
       </c>
       <c r="D4" t="n">
-        <v>8577284944019.958</v>
+        <v>8921953106692.508</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>490266073123491.3</v>
+        <v>433830716962820.3</v>
       </c>
       <c r="C5" t="n">
-        <v>463840771580352.1</v>
+        <v>506288059779577.1</v>
       </c>
       <c r="D5" t="n">
-        <v>431562780371921.3</v>
+        <v>425332326199358</v>
       </c>
     </row>
   </sheetData>
